--- a/flows.xlsx
+++ b/flows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaneworner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaneworner\Coding\Python\Data Visualisation Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E137188-2CEA-4E3F-AB0A-AC27755921DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092FB86F-D08C-4ECE-81AE-7B8CEA891F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="16080" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16080" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -561,12 +564,15 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="51">
     <dxf>
       <font>
         <sz val="10"/>
@@ -805,223 +811,6 @@
         <color rgb="FFFFFFFF"/>
         <name val="Arial"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -1456,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB61"/>
+  <dimension ref="A1:BB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10656,10 +10445,10 @@
         <v>113</v>
       </c>
       <c r="B61" s="7">
-        <v>134055</v>
+        <v>121599</v>
       </c>
       <c r="C61" s="11">
-        <v>122345</v>
+        <v>110847</v>
       </c>
       <c r="D61" s="9">
         <v>965</v>
@@ -10805,253 +10594,412 @@
         <v>1119</v>
       </c>
     </row>
+    <row r="62" spans="1:54">
+      <c r="A62" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="7">
+        <v>706277</v>
+      </c>
+      <c r="C62" s="11">
+        <v>522590</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1463</v>
+      </c>
+      <c r="E62" s="9">
+        <v>-13294</v>
+      </c>
+      <c r="F62" s="9">
+        <v>16687</v>
+      </c>
+      <c r="G62" s="9">
+        <v>429</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9">
+        <v>5070</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9">
+        <v>512235</v>
+      </c>
+      <c r="L62" s="11">
+        <v>89282</v>
+      </c>
+      <c r="M62" s="9">
+        <v>368</v>
+      </c>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9">
+        <v>-10</v>
+      </c>
+      <c r="P62" s="9">
+        <v>-199</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>302</v>
+      </c>
+      <c r="R62" s="9">
+        <v>1069</v>
+      </c>
+      <c r="S62" s="9">
+        <v>1594</v>
+      </c>
+      <c r="T62" s="9">
+        <v>542</v>
+      </c>
+      <c r="U62" s="9">
+        <v>2858</v>
+      </c>
+      <c r="V62" s="9">
+        <v>17202</v>
+      </c>
+      <c r="W62" s="9">
+        <v>1225</v>
+      </c>
+      <c r="X62" s="9">
+        <v>1482</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>20449</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>2326</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>-3</v>
+      </c>
+      <c r="AB62" s="9">
+        <v>8282</v>
+      </c>
+      <c r="AC62" s="9">
+        <v>-29</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>-1458</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>1248</v>
+      </c>
+      <c r="AF62" s="9">
+        <v>664</v>
+      </c>
+      <c r="AG62" s="9">
+        <v>306</v>
+      </c>
+      <c r="AH62" s="9">
+        <v>-46</v>
+      </c>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9">
+        <v>-9</v>
+      </c>
+      <c r="AK62" s="9">
+        <v>79</v>
+      </c>
+      <c r="AL62" s="9">
+        <v>10182</v>
+      </c>
+      <c r="AM62" s="9">
+        <v>3574</v>
+      </c>
+      <c r="AN62" s="9">
+        <v>18742</v>
+      </c>
+      <c r="AO62" s="9">
+        <v>7953</v>
+      </c>
+      <c r="AP62" s="9">
+        <v>-9411</v>
+      </c>
+      <c r="AQ62" s="11">
+        <v>92559</v>
+      </c>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9">
+        <v>45927</v>
+      </c>
+      <c r="AT62" s="9">
+        <v>7732</v>
+      </c>
+      <c r="AU62" s="9">
+        <v>-257</v>
+      </c>
+      <c r="AV62" s="9">
+        <v>20818</v>
+      </c>
+      <c r="AW62" s="9">
+        <v>20618</v>
+      </c>
+      <c r="AX62" s="9">
+        <v>-1901</v>
+      </c>
+      <c r="AY62" s="9">
+        <v>-89</v>
+      </c>
+      <c r="AZ62" s="9">
+        <v>-289</v>
+      </c>
+      <c r="BA62" s="11">
+        <v>1846</v>
+      </c>
+      <c r="BB62" s="12">
+        <v>1846</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="74" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="104" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="73" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="102" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="72" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="101" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="71" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="103" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="70" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="100" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1">
-    <cfRule type="cellIs" dxfId="69" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="99" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1">
-    <cfRule type="cellIs" dxfId="68" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="98" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A9">
-    <cfRule type="cellIs" dxfId="59" priority="91" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A2:A9 B61:C61">
+    <cfRule type="cellIs" dxfId="43" priority="93" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="70" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A17">
-    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A21">
-    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="68" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="67" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A29">
-    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="66" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:A33">
-    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="64" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A41">
-    <cfRule type="cellIs" dxfId="51" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="63" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A45">
-    <cfRule type="cellIs" dxfId="50" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A49">
-    <cfRule type="cellIs" dxfId="49" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="61" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A53">
-    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A57">
-    <cfRule type="cellIs" dxfId="47" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="59" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A61">
-    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A58:A62">
+    <cfRule type="cellIs" dxfId="30" priority="58" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D17 B14:C17">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C13">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C9 D2:D9">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C5">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D21 B22:D25">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C21">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D29">
-    <cfRule type="cellIs" dxfId="19" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="105" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C29">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ42:BB49">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C49 D42:D49">
-    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="106" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:C42">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C45">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ30:BB33">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D33">
+    <cfRule type="cellIs" dxfId="12" priority="107" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ34:BB41">
     <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ34:BB41">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B38:C41 D34:D41">
+    <cfRule type="cellIs" dxfId="10" priority="108" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C41 D34:D41">
+  <conditionalFormatting sqref="B34:C34">
     <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B35:C37">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ50:BB53">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D53">
+    <cfRule type="cellIs" dxfId="6" priority="109" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:C50">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:C50">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B51:C53">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C60 D54:D60 B61:D61">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:C57">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:D62">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
